--- a/data/trans_dic/P16A13-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,15</t>
+          <t>1,83; 5,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,05</t>
+          <t>2,31; 7,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,69</t>
+          <t>2,57; 6,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,31</t>
+          <t>5,44; 9,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,06</t>
+          <t>0,87; 3,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,07</t>
+          <t>3,58; 9,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,8</t>
+          <t>1,47; 5,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,1</t>
+          <t>3,13; 5,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,02</t>
+          <t>1,71; 4,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,16</t>
+          <t>3,36; 7,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,58</t>
+          <t>2,5; 5,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,19</t>
+          <t>4,71; 7,2</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,31</t>
+          <t>1,06; 4,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,66</t>
+          <t>1,66; 5,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,52</t>
+          <t>1,82; 5,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,07</t>
+          <t>4,01; 8,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,09</t>
+          <t>1,65; 5,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,0</t>
+          <t>2,54; 7,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,06</t>
+          <t>2,36; 7,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,92</t>
+          <t>3,31; 7,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,99</t>
+          <t>1,72; 4,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,72</t>
+          <t>2,51; 5,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,55</t>
+          <t>2,46; 5,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,83</t>
+          <t>4,15; 6,8</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,81</t>
+          <t>1,18; 3,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,14</t>
+          <t>2,11; 5,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,8</t>
+          <t>1,59; 4,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,91</t>
+          <t>1,84; 8,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,68</t>
+          <t>2,32; 9,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,9</t>
+          <t>2,26; 7,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,75</t>
+          <t>2,58; 11,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,65</t>
+          <t>8,42; 15,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,33</t>
+          <t>1,9; 4,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,31</t>
+          <t>2,72; 5,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,6</t>
+          <t>2,41; 5,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,75</t>
+          <t>2,85; 9,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,13</t>
+          <t>2,27; 4,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,77</t>
+          <t>4,01; 6,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,09</t>
+          <t>1,38; 3,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,97</t>
+          <t>5,18; 7,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,35</t>
+          <t>1,92; 4,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,31</t>
+          <t>3,12; 6,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,33</t>
+          <t>2,5; 5,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,73</t>
+          <t>3,13; 7,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,79</t>
+          <t>2,29; 3,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,1</t>
+          <t>4,03; 6,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,59</t>
+          <t>2,11; 3,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,22</t>
+          <t>3,99; 7,24</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,64</t>
+          <t>1,66; 5,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,12</t>
+          <t>2,27; 6,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,08</t>
+          <t>2,9; 6,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 11,22</t>
+          <t>5,3; 11,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,22</t>
+          <t>1,77; 4,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,91</t>
+          <t>5,23; 9,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,32</t>
+          <t>2,38; 5,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,25</t>
+          <t>8,04; 13,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,54</t>
+          <t>2,17; 4,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,17</t>
+          <t>4,38; 7,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,0</t>
+          <t>2,91; 5,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,51</t>
+          <t>7,91; 11,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,41</t>
+          <t>0,7; 5,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,79</t>
+          <t>0,49; 3,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,85</t>
+          <t>3,49; 5,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,61</t>
+          <t>3,94; 6,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,3</t>
+          <t>3,34; 6,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,93</t>
+          <t>8,5; 11,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,91</t>
+          <t>2,89; 4,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,72</t>
+          <t>3,51; 5,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 4,86</t>
+          <t>2,71; 4,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,41</t>
+          <t>6,82; 9,32</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,31</t>
+          <t>2,14; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,9</t>
+          <t>3,5; 4,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,5</t>
+          <t>2,35; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,98</t>
+          <t>4,69; 6,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,27</t>
+          <t>3,0; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,19</t>
+          <t>4,58; 6,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 4,8</t>
+          <t>3,4; 4,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,88</t>
+          <t>6,55; 8,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,56</t>
+          <t>2,73; 3,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 5,29</t>
+          <t>4,25; 5,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,99</t>
+          <t>3,06; 3,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 7,66</t>
+          <t>6,13; 7,69</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15012</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19212</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18394</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36548</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5728</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18274</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11008</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19614</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20741</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37486</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29402</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56162</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8666; 25295</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10096; 31459</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11043; 29774</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27480; 47639</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2682; 12048</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11263; 29502</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5113; 20603</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14024; 26637</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13325; 32229</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25239; 54546</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>19418; 43633</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44906; 68596</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8355</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12465</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26106</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11254</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15681</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15896</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18652</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19609</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29056</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28361</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3889; 16747</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6930; 24940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6868; 21543</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18121; 36933</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6145; 19751</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8505; 25943</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8792; 28244</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12660; 27338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12700; 31371</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18909; 44713</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18406; 41672</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34670; 56744</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11993</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21270</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15364</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34719</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8928</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11905</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10297</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19123</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20921</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>33175</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>25661</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53842</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6408; 20691</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13178; 33032</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8299; 24904</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12301; 60045</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3887; 16079</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5833; 20539</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4279; 19171</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14061; 25504</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13523; 31072</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23989; 46713</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16555; 38632</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23808; 80114</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38076</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61310</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24076</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66710</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21002</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34011</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56135</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59078</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95320</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54275</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>122845</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28135; 52019</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46303; 78633</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15914; 35150</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>53633; 80644</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13723; 31107</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23907; 47836</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20629; 43187</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30623; 75798</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44795; 74717</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77510; 116625</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41699; 69449</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80319; 145734</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11059</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20266</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26529</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35048</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17487</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51559</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26320</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>92396</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28546</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>71825</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>52850</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>127444</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5817; 19406</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11603; 30959</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17986; 39071</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>25127; 55901</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10060; 26974</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39719; 69364</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17552; 39993</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>67435; 109886</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19933; 41024</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55597; 90262</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39522; 68973</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>103911; 150463</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4831</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3617</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>57073</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57673</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50018</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>76788</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59173</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>62504</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>51112</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>80405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6740</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1867; 13713</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4867</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1172; 8666</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>43526; 74266</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43525; 72388</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>36150; 65921</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>64642; 88683</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>44773; 75638</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>48163; 79896</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>37082; 68261</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>68252; 93263</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86595</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>140263</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>97923</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>202748</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>121472</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>189102</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>143737</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>282707</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>208067</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>329366</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>241660</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>485455</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>69958; 106641</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>119301; 169002</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>79710; 121298</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>158425; 233822</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>101175; 145504</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>161993; 220762</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>120198; 171532</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>234246; 316297</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>181637; 240278</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>295244; 369490</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>211402; 275323</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>425624; 534506</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A13-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
